--- a/Data/EC/NIT-9002285550.xlsx
+++ b/Data/EC/NIT-9002285550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E978F81A-BEC1-4EAD-A791-51956733ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF340F5A-BE24-4A72-ACF9-21F3FB981CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{49334B6F-19C4-47DD-9F74-6B0619CDE0C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4B93EB3-D84D-4AE3-86DB-380411342B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="54">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,10 +65,88 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73166651</t>
-  </si>
-  <si>
-    <t>IVAN DARIO TAPIAS ROJAS</t>
+    <t>9156113</t>
+  </si>
+  <si>
+    <t>MANUEL SALVADOR ROMERO DIAZ</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
@@ -80,133 +158,7 @@
     <t>MAURICIO ALFONSO CASTELLON PEÑARANDA</t>
   </si>
   <si>
-    <t>9157463</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO GOMEZ LLERENA</t>
-  </si>
-  <si>
-    <t>79969334</t>
-  </si>
-  <si>
-    <t>ANDRES EDUARDO BARRIOS ALVARADO</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1052735769</t>
-  </si>
-  <si>
-    <t>MARCE OROZCO TORRES</t>
-  </si>
-  <si>
-    <t>15024276</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL BERROCAL JULIO</t>
-  </si>
-  <si>
-    <t>1007254741</t>
-  </si>
-  <si>
-    <t>YINA PATRICIA RIPOLL OLIVERA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>1051823879</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID LOBELO CARRASQUILLA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>9156113</t>
-  </si>
-  <si>
-    <t>MANUEL SALVADOR ROMERO DIAZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1051885286</t>
-  </si>
-  <si>
-    <t>RICHARD DEL JESUS HERRERA COTA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1047456371</t>
@@ -311,7 +263,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -324,9 +278,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -526,23 +478,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,10 +522,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -626,7 +578,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C798D2-347F-61B3-4E0C-D1E18D6FCE0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B488CD7-6412-8508-0016-4546BD84857E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -977,8 +929,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9362F0F8-1C91-4D55-B583-CD5A0EC11795}">
-  <dimension ref="B2:J60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D35AA1-F8AA-4C41-AB95-98E1DDDF1B80}">
+  <dimension ref="B2:J51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1002,7 +954,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1047,7 +999,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1079,12 +1031,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2246806</v>
+        <v>1379053</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1095,14 +1047,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F13" s="5">
         <v>28</v>
@@ -1132,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1155,10 +1107,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>72000</v>
+        <v>12373</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1169,19 +1121,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1192,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1215,19 +1167,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>260000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>7000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1238,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>260000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>7000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1261,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1284,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1307,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>877803</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1330,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1353,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>32933</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1376,13 +1328,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1399,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1422,13 +1374,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>46400</v>
@@ -1445,13 +1397,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1468,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1491,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>46400</v>
@@ -1514,13 +1466,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>46400</v>
@@ -1537,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>46400</v>
@@ -1560,13 +1512,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F34" s="18">
         <v>46400</v>
@@ -1583,13 +1535,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>46400</v>
@@ -1606,13 +1558,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>46400</v>
@@ -1629,13 +1581,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>46400</v>
@@ -1652,13 +1604,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>46400</v>
@@ -1675,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>46400</v>
@@ -1698,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>46400</v>
@@ -1721,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>46400</v>
@@ -1744,13 +1696,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1767,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1790,13 +1742,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1809,263 +1761,56 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="B45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G45" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="C51" s="32"/>
+      <c r="H51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F51" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="18">
-        <v>12373</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="18">
-        <v>6400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G54" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H50:J50"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
